--- a/teaching/traditional_assets/database/data/australia/australia_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/australia/australia_insurance_general.xlsx
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.1589</v>
+        <v>0.1513</v>
       </c>
       <c r="E2">
-        <v>0.329</v>
+        <v>0.1453</v>
       </c>
       <c r="G2">
-        <v>0.2511541306399367</v>
+        <v>0.2841271854717659</v>
       </c>
       <c r="H2">
-        <v>0.2511541306399367</v>
+        <v>0.2841271854717659</v>
       </c>
       <c r="I2">
-        <v>0.2200316620337358</v>
+        <v>0.246083129956427</v>
       </c>
       <c r="J2">
-        <v>0.178497462850042</v>
+        <v>0.189021862846119</v>
       </c>
       <c r="K2">
-        <v>123.017</v>
+        <v>5.31</v>
       </c>
       <c r="L2">
-        <v>0.1568814242354682</v>
+        <v>0.005612989154563329</v>
       </c>
       <c r="M2">
-        <v>68.10599999999999</v>
+        <v>79.99000000000001</v>
       </c>
       <c r="N2">
-        <v>0.02055868822371678</v>
+        <v>0.01850699304744167</v>
       </c>
       <c r="O2">
-        <v>0.5536307989952608</v>
+        <v>15.06403013182674</v>
       </c>
       <c r="P2">
-        <v>65.526</v>
+        <v>76.5</v>
       </c>
       <c r="Q2">
-        <v>0.01977988142817469</v>
+        <v>0.01769952454218386</v>
       </c>
       <c r="R2">
-        <v>0.5326580879065494</v>
+        <v>14.40677966101695</v>
       </c>
       <c r="S2">
-        <v>2.579999999999998</v>
+        <v>3.490000000000002</v>
       </c>
       <c r="T2">
-        <v>0.03788212492291426</v>
+        <v>0.04363045380672586</v>
       </c>
       <c r="U2">
-        <v>225.78</v>
+        <v>222.481</v>
       </c>
       <c r="V2">
-        <v>0.06815465050290392</v>
+        <v>0.05147461332901448</v>
       </c>
       <c r="W2">
-        <v>0.1603640707537864</v>
+        <v>0.1149025495840194</v>
       </c>
       <c r="X2">
-        <v>0.04991275168701723</v>
+        <v>0.04481290168218622</v>
       </c>
       <c r="Y2">
-        <v>0.1104513190667692</v>
+        <v>0.07008964790183317</v>
       </c>
       <c r="Z2">
-        <v>2.18179776806034</v>
+        <v>2.696272311665755</v>
       </c>
       <c r="AA2">
-        <v>-0.1991727557438247</v>
+        <v>0.3615624893741434</v>
       </c>
       <c r="AB2">
-        <v>0.0465840188608736</v>
+        <v>0.03969251258579146</v>
       </c>
       <c r="AC2">
-        <v>-0.2456846947563606</v>
+        <v>0.3218699767883519</v>
       </c>
       <c r="AD2">
-        <v>358</v>
+        <v>830.91</v>
       </c>
       <c r="AE2">
-        <v>73.81186266433181</v>
+        <v>3.152186993104562</v>
       </c>
       <c r="AF2">
-        <v>431.8118626643318</v>
+        <v>834.0621869931045</v>
       </c>
       <c r="AG2">
-        <v>206.0318626643318</v>
+        <v>611.5811869931046</v>
       </c>
       <c r="AH2">
-        <v>0.1153167514208393</v>
+        <v>0.1617587012995863</v>
       </c>
       <c r="AI2">
-        <v>0.2624674044345122</v>
+        <v>0.3846392408267462</v>
       </c>
       <c r="AJ2">
-        <v>0.05855187538950662</v>
+        <v>0.1239591627134912</v>
       </c>
       <c r="AK2">
-        <v>0.1451519580497364</v>
+        <v>0.314284737718326</v>
       </c>
       <c r="AL2">
-        <v>17.331</v>
+        <v>20.552</v>
       </c>
       <c r="AM2">
-        <v>15.161</v>
+        <v>19.472</v>
       </c>
       <c r="AN2">
-        <v>1.644933329657505</v>
+        <v>3.075621853716316</v>
       </c>
       <c r="AO2">
-        <v>9.612832496682246</v>
+        <v>11.29135850525496</v>
       </c>
       <c r="AP2">
-        <v>0.946672284547422</v>
+        <v>2.263774011671249</v>
       </c>
       <c r="AQ2">
-        <v>10.98872106061605</v>
+        <v>11.91762530813476</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Steadfast Group Limited (ASX:SDF)</t>
+          <t>AUB Group Limited (ASX:AUB)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,121 +725,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.313</v>
+        <v>0.0906</v>
       </c>
       <c r="E3">
-        <v>0.329</v>
+        <v>0.0626</v>
       </c>
       <c r="G3">
-        <v>0.2798101641289302</v>
+        <v>0.2686825053995681</v>
       </c>
       <c r="H3">
-        <v>0.2798101641289302</v>
+        <v>0.2686825053995681</v>
       </c>
       <c r="I3">
-        <v>0.2428784364881243</v>
+        <v>0.2399117175005576</v>
       </c>
       <c r="J3">
-        <v>0.1859096358078302</v>
+        <v>0.1996684616617544</v>
       </c>
       <c r="K3">
-        <v>72.8</v>
+        <v>32.6</v>
       </c>
       <c r="L3">
-        <v>0.1439588688946015</v>
+        <v>0.1408207343412527</v>
       </c>
       <c r="M3">
-        <v>46.48</v>
+        <v>14.2</v>
       </c>
       <c r="N3">
-        <v>0.02212701133009616</v>
+        <v>0.01528525296017223</v>
       </c>
       <c r="O3">
-        <v>0.6384615384615384</v>
+        <v>0.4355828220858896</v>
       </c>
       <c r="P3">
-        <v>43.9</v>
+        <v>14.2</v>
       </c>
       <c r="Q3">
-        <v>0.02089879082167</v>
+        <v>0.01528525296017223</v>
       </c>
       <c r="R3">
-        <v>0.603021978021978</v>
+        <v>0.4355828220858896</v>
       </c>
       <c r="S3">
-        <v>2.579999999999998</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.05550774526678138</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>81.7</v>
+        <v>58.3</v>
       </c>
       <c r="V3">
-        <v>0.03889364943349519</v>
+        <v>0.0627556512378902</v>
       </c>
       <c r="W3">
-        <v>0.09865835479062203</v>
+        <v>0.1119890072140158</v>
       </c>
       <c r="X3">
-        <v>0.04967472792974692</v>
+        <v>0.04481332692775535</v>
       </c>
       <c r="Y3">
-        <v>0.04898362686087511</v>
+        <v>0.06717568028626045</v>
       </c>
       <c r="Z3">
-        <v>1.796563288427345</v>
+        <v>2.91370204850486</v>
       </c>
       <c r="AA3">
-        <v>0.3339984266572455</v>
+        <v>0.5817744057656679</v>
       </c>
       <c r="AB3">
-        <v>0.04661756546595782</v>
+        <v>0.03963490713863608</v>
       </c>
       <c r="AC3">
-        <v>0.2873808611912877</v>
+        <v>0.5421394986270318</v>
       </c>
       <c r="AD3">
-        <v>241.3</v>
+        <v>180.5</v>
       </c>
       <c r="AE3">
-        <v>41.88187333977753</v>
+        <v>3.152186993104562</v>
       </c>
       <c r="AF3">
-        <v>283.1818733397776</v>
+        <v>183.6521869931046</v>
       </c>
       <c r="AG3">
-        <v>201.4818733397776</v>
+        <v>125.3521869931046</v>
       </c>
       <c r="AH3">
-        <v>0.1187952121403742</v>
+        <v>0.1650580380284128</v>
       </c>
       <c r="AI3">
-        <v>0.2693937942822988</v>
+        <v>0.3509821679837999</v>
       </c>
       <c r="AJ3">
-        <v>0.08752159324701816</v>
+        <v>0.1188902423113429</v>
       </c>
       <c r="AK3">
-        <v>0.2078242810726215</v>
+        <v>0.2696023171839894</v>
       </c>
       <c r="AL3">
-        <v>9.9</v>
+        <v>5.89</v>
       </c>
       <c r="AM3">
-        <v>9.9</v>
+        <v>5.89</v>
       </c>
       <c r="AN3">
-        <v>1.582295081967213</v>
+        <v>2.8393896492056</v>
       </c>
       <c r="AO3">
-        <v>12.14141414141414</v>
+        <v>9.303904923599321</v>
       </c>
       <c r="AP3">
-        <v>1.321192612064115</v>
+        <v>1.971876466778426</v>
       </c>
       <c r="AQ3">
-        <v>12.14141414141414</v>
+        <v>9.303904923599321</v>
       </c>
     </row>
     <row r="4">
@@ -850,7 +850,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AUB Group Limited (ASX:AUB)</t>
+          <t>PSC Insurance Group Limited (ASX:PSI)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -859,46 +859,46 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0708</v>
+        <v>0.287</v>
       </c>
       <c r="E4">
-        <v>0.0689</v>
+        <v>0.228</v>
       </c>
       <c r="G4">
-        <v>0.1595310907237513</v>
+        <v>0.3094841930116473</v>
       </c>
       <c r="H4">
-        <v>0.1595310907237513</v>
+        <v>0.3094841930116473</v>
       </c>
       <c r="I4">
-        <v>0.1370250721764815</v>
+        <v>0.2612312811980033</v>
       </c>
       <c r="J4">
-        <v>0.108457230293816</v>
+        <v>0.193371201254614</v>
       </c>
       <c r="K4">
-        <v>33.9</v>
+        <v>12.3</v>
       </c>
       <c r="L4">
-        <v>0.172782874617737</v>
+        <v>0.1023294509151414</v>
       </c>
       <c r="M4">
-        <v>21.3</v>
+        <v>15.3</v>
       </c>
       <c r="N4">
-        <v>0.03426640926640927</v>
+        <v>0.02115304852758192</v>
       </c>
       <c r="O4">
-        <v>0.6283185840707965</v>
+        <v>1.24390243902439</v>
       </c>
       <c r="P4">
-        <v>21.3</v>
+        <v>15.3</v>
       </c>
       <c r="Q4">
-        <v>0.03426640926640927</v>
+        <v>0.02115304852758192</v>
       </c>
       <c r="R4">
-        <v>0.6283185840707965</v>
+        <v>1.24390243902439</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -907,73 +907,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>49.1</v>
+        <v>17.9</v>
       </c>
       <c r="V4">
-        <v>0.07898970398970399</v>
+        <v>0.0247476842250795</v>
       </c>
       <c r="W4">
-        <v>0.1576744186046511</v>
+        <v>0.117816091954023</v>
       </c>
       <c r="X4">
-        <v>0.05015077544428755</v>
+        <v>0.04414042862424195</v>
       </c>
       <c r="Y4">
-        <v>0.1075236431603636</v>
+        <v>0.07367566332978104</v>
       </c>
       <c r="Z4">
-        <v>1.825483002559892</v>
+        <v>1.917065390749601</v>
       </c>
       <c r="AA4">
-        <v>0.1979868304060849</v>
+        <v>0.3707052374928962</v>
       </c>
       <c r="AB4">
-        <v>0.04655047225578939</v>
+        <v>0.03974997633165189</v>
       </c>
       <c r="AC4">
-        <v>0.1514363581502955</v>
+        <v>0.3309552611612444</v>
       </c>
       <c r="AD4">
-        <v>73.3</v>
+        <v>120.7</v>
       </c>
       <c r="AE4">
-        <v>25.67840419487161</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>98.97840419487162</v>
+        <v>120.7</v>
       </c>
       <c r="AG4">
-        <v>49.87840419487161</v>
+        <v>102.8</v>
       </c>
       <c r="AH4">
-        <v>0.1373596594328466</v>
+        <v>0.1430094786729858</v>
       </c>
       <c r="AI4">
-        <v>0.2260408443226688</v>
+        <v>0.4169257340241797</v>
       </c>
       <c r="AJ4">
-        <v>0.07428147187351131</v>
+        <v>0.1244401404188355</v>
       </c>
       <c r="AK4">
-        <v>0.128295202759952</v>
+        <v>0.3784977908689249</v>
       </c>
       <c r="AL4">
-        <v>4.62</v>
+        <v>4.7</v>
       </c>
       <c r="AM4">
-        <v>4.62</v>
+        <v>3.62</v>
       </c>
       <c r="AN4">
-        <v>1.883350462487153</v>
+        <v>3.244623655913978</v>
       </c>
       <c r="AO4">
-        <v>5.281385281385281</v>
+        <v>6.680851063829786</v>
       </c>
       <c r="AP4">
-        <v>1.281562286610268</v>
+        <v>2.763440860215054</v>
       </c>
       <c r="AQ4">
-        <v>5.281385281385281</v>
+        <v>8.674033149171271</v>
       </c>
     </row>
     <row r="5">
@@ -984,7 +984,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PSC Insurance Group Limited (ASX:PSI)</t>
+          <t>Steadfast Group Limited (ASX:SDF)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -993,121 +993,118 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.247</v>
-      </c>
-      <c r="E5">
-        <v>0.363</v>
+        <v>0.212</v>
       </c>
       <c r="G5">
-        <v>0.3366459627329192</v>
+        <v>0.2883217846881865</v>
       </c>
       <c r="H5">
-        <v>0.3366459627329192</v>
+        <v>0.2883217846881865</v>
       </c>
       <c r="I5">
-        <v>0.3192543746628583</v>
+        <v>0.2486057123542335</v>
       </c>
       <c r="J5">
-        <v>0.2196420600878192</v>
+        <v>0.1243028561771168</v>
       </c>
       <c r="K5">
-        <v>17.3</v>
+        <v>-38.1</v>
       </c>
       <c r="L5">
-        <v>0.2149068322981366</v>
+        <v>-0.06439073854994085</v>
       </c>
       <c r="M5">
-        <v>0.326</v>
+        <v>50.49</v>
       </c>
       <c r="N5">
-        <v>0.0005607155142758858</v>
+        <v>0.0189612438035151</v>
       </c>
       <c r="O5">
-        <v>0.01884393063583815</v>
+        <v>-1.325196850393701</v>
       </c>
       <c r="P5">
-        <v>0.326</v>
+        <v>47</v>
       </c>
       <c r="Q5">
-        <v>0.0005607155142758858</v>
+        <v>0.01765059336037254</v>
       </c>
       <c r="R5">
-        <v>0.01884393063583815</v>
+        <v>-1.233595800524934</v>
       </c>
       <c r="S5">
+        <v>3.490000000000002</v>
+      </c>
+      <c r="T5">
+        <v>0.06912259853436328</v>
+      </c>
+      <c r="U5">
+        <v>145.4</v>
+      </c>
+      <c r="V5">
+        <v>0.05460417605528015</v>
+      </c>
+      <c r="W5">
+        <v>-0.05351123595505618</v>
+      </c>
+      <c r="X5">
+        <v>0.04481247643661709</v>
+      </c>
+      <c r="Y5">
+        <v>-0.09832371239167328</v>
+      </c>
+      <c r="Z5">
+        <v>2.835170100622905</v>
+      </c>
+      <c r="AA5">
+        <v>0.3524197412553906</v>
+      </c>
+      <c r="AB5">
+        <v>0.03963504883993102</v>
+      </c>
+      <c r="AC5">
+        <v>0.3127846924154596</v>
+      </c>
+      <c r="AD5">
+        <v>526.3</v>
+      </c>
+      <c r="AE5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>93.2</v>
-      </c>
-      <c r="V5">
-        <v>0.1603027175782594</v>
-      </c>
-      <c r="W5">
-        <v>0.1630537229029218</v>
-      </c>
-      <c r="X5">
-        <v>0.04859084021816844</v>
-      </c>
-      <c r="Y5">
-        <v>0.1144628826847533</v>
-      </c>
-      <c r="Z5">
-        <v>-2.715018888710584</v>
-      </c>
-      <c r="AA5">
-        <v>-0.5963323418937343</v>
-      </c>
-      <c r="AB5">
-        <v>0.04647340576928253</v>
-      </c>
-      <c r="AC5">
-        <v>-0.6428057476630168</v>
-      </c>
-      <c r="AD5">
-        <v>40</v>
-      </c>
-      <c r="AE5">
-        <v>6.050114198199526</v>
-      </c>
       <c r="AF5">
-        <v>46.05011419819952</v>
+        <v>526.3</v>
       </c>
       <c r="AG5">
-        <v>-47.14988580180048</v>
+        <v>380.9</v>
       </c>
       <c r="AH5">
-        <v>0.07339247082143836</v>
+        <v>0.1650308864569941</v>
       </c>
       <c r="AI5">
-        <v>0.2987355178925803</v>
+        <v>0.3889874353288987</v>
       </c>
       <c r="AJ5">
-        <v>-0.08825432985178271</v>
+        <v>0.1251437395275487</v>
       </c>
       <c r="AK5">
-        <v>-0.7735815826115926</v>
+        <v>0.3154190129181849</v>
       </c>
       <c r="AL5">
-        <v>2.42</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="AM5">
-        <v>0.25</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="AN5">
-        <v>1.378834884522578</v>
+        <v>3.084994138335287</v>
       </c>
       <c r="AO5">
-        <v>10.33057851239669</v>
+        <v>15.56613756613757</v>
       </c>
       <c r="AP5">
-        <v>-1.625297683619458</v>
+        <v>2.232708089097303</v>
       </c>
       <c r="AQ5">
-        <v>100</v>
+        <v>15.56613756613757</v>
       </c>
     </row>
     <row r="6">
@@ -1127,25 +1124,25 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.00594</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="G6">
-        <v>-1.701149425287356</v>
+        <v>-0.4618320610687023</v>
       </c>
       <c r="H6">
-        <v>-1.701149425287356</v>
+        <v>-0.4618320610687023</v>
       </c>
       <c r="I6">
-        <v>-1.650743785227946</v>
+        <v>-0.4732824427480916</v>
       </c>
       <c r="J6">
-        <v>-1.650743785227946</v>
+        <v>-0.4732824427480916</v>
       </c>
       <c r="K6">
-        <v>-0.983</v>
+        <v>-1.49</v>
       </c>
       <c r="L6">
-        <v>-0.5649425287356322</v>
+        <v>-0.5687022900763359</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1169,73 +1166,73 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.78</v>
+        <v>0.881</v>
       </c>
       <c r="V6">
-        <v>0.1943231441048035</v>
+        <v>0.1249645390070922</v>
       </c>
       <c r="W6">
-        <v>983</v>
+        <v>0.9254658385093167</v>
       </c>
       <c r="X6">
-        <v>0.05471096732758289</v>
+        <v>0.05105882978849452</v>
       </c>
       <c r="Y6">
-        <v>982.9452890326725</v>
+        <v>0.8744070087208222</v>
       </c>
       <c r="Z6">
-        <v>19.23269686158176</v>
+        <v>262.0000000000056</v>
       </c>
       <c r="AA6">
-        <v>-31.74825481742911</v>
+        <v>-124.0000000000026</v>
       </c>
       <c r="AB6">
-        <v>0.04849633312598992</v>
+        <v>0.04125497227618417</v>
       </c>
       <c r="AC6">
-        <v>-31.7967511505551</v>
+        <v>-124.0412549722788</v>
       </c>
       <c r="AD6">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="AE6">
-        <v>0.2014709314831316</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>3.601470931483131</v>
+        <v>3.41</v>
       </c>
       <c r="AG6">
-        <v>1.821470931483131</v>
+        <v>2.529</v>
       </c>
       <c r="AH6">
-        <v>0.2822144054411579</v>
+        <v>0.3260038240917782</v>
       </c>
       <c r="AI6">
-        <v>1.808447652711137</v>
+        <v>1.274766355140187</v>
       </c>
       <c r="AJ6">
-        <v>0.1658676640723146</v>
+        <v>0.2640150328844347</v>
       </c>
       <c r="AK6">
-        <v>8.613339520039078</v>
+        <v>1.409698996655518</v>
       </c>
       <c r="AL6">
-        <v>0.391</v>
+        <v>0.512</v>
       </c>
       <c r="AM6">
-        <v>0.391</v>
+        <v>0.512</v>
       </c>
       <c r="AN6">
-        <v>-1.217765042979943</v>
+        <v>-2.818181818181818</v>
       </c>
       <c r="AO6">
-        <v>-7.672634271099744</v>
+        <v>-2.421875</v>
       </c>
       <c r="AP6">
-        <v>-0.6523893021071389</v>
+        <v>-2.090082644628099</v>
       </c>
       <c r="AQ6">
-        <v>-7.672634271099744</v>
+        <v>-2.421875</v>
       </c>
     </row>
   </sheetData>
